--- a/User Values.xlsx
+++ b/User Values.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evannewenhizen\Desktop\FiberPhixGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erikv\Desktop\Fiber Photo Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AE20C5-DDAA-4784-85E2-41E9BC19CBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A25FED1-39E0-4F46-8584-4DD43BD014BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26520" yWindow="2280" windowWidth="21600" windowHeight="10560" xr2:uid="{D7731260-2FB8-45ED-B485-4AF02B50CAD8}"/>
+    <workbookView xWindow="1770" yWindow="4470" windowWidth="17325" windowHeight="15435" xr2:uid="{D7731260-2FB8-45ED-B485-4AF02B50CAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Control Channel ID</t>
   </si>
@@ -54,25 +54,37 @@
     <t>Time to cut off beginning (seconds)</t>
   </si>
   <si>
-    <t>Epoc Type to grab?</t>
-  </si>
-  <si>
     <t>Path to tank file</t>
   </si>
   <si>
-    <t>_4654</t>
-  </si>
-  <si>
-    <t>_4054</t>
-  </si>
-  <si>
-    <t>PtAB</t>
-  </si>
-  <si>
     <t>Time to cut off end (seconds)</t>
   </si>
   <si>
-    <t>YOUR PATH TO TANK FILES</t>
+    <t>Epoc Port to grab?</t>
+  </si>
+  <si>
+    <t>Epoc Type?</t>
+  </si>
+  <si>
+    <t>_465N</t>
+  </si>
+  <si>
+    <t>_405N</t>
+  </si>
+  <si>
+    <t>*Type 'ALL' for all events during session</t>
+  </si>
+  <si>
+    <t>Sucrose Delivery</t>
+  </si>
+  <si>
+    <t>IInf</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>C:/….....</t>
   </si>
 </sst>
 </file>
@@ -424,28 +436,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D60B8BD-4B5D-4910-8DF5-574558CCD4A4}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -454,51 +467,62 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+      <c r="D2">
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>500</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
       </c>
       <c r="I2">
         <v>5</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/User Values.xlsx
+++ b/User Values.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erikv\Desktop\Fiber Photo Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evannewenhizen\Desktop\Fiber Photo Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E283D6A-1A1E-4D19-A5DC-8D33AE05CE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF9B71E-FFC6-4A7E-962C-7D3F08FFD23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="0" windowWidth="19185" windowHeight="20940" xr2:uid="{D7731260-2FB8-45ED-B485-4AF02B50CAD8}"/>
+    <workbookView xWindow="-55200" yWindow="3360" windowWidth="21600" windowHeight="10800" xr2:uid="{D7731260-2FB8-45ED-B485-4AF02B50CAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Control Channel ID</t>
   </si>
@@ -66,39 +66,76 @@
     <t>Epoc Type?</t>
   </si>
   <si>
+    <t>_465N</t>
+  </si>
+  <si>
+    <t>_405N</t>
+  </si>
+  <si>
     <t>*Type 'ALL' for all events during session</t>
   </si>
   <si>
-    <t>If Batching 'MainInfo' add the file root below</t>
-  </si>
-  <si>
-    <t>_405N</t>
-  </si>
-  <si>
-    <t>_465N</t>
+    <t>all</t>
+  </si>
+  <si>
+    <t>E:/MU Fiber Files 2</t>
   </si>
   <si>
     <t>Sock</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>Shocks x3</t>
-  </si>
-  <si>
-    <t>C:/… DIRECTORY THAT CONTAINS MULTIPLE TANK FILES</t>
-  </si>
-  <si>
-    <t>C:/…. POINT TO A SINGLE TANK FILE</t>
+    <t>MainInfo Save Location?</t>
+  </si>
+  <si>
+    <t>Figure Save Location?</t>
+  </si>
+  <si>
+    <t>C:/Users/evannewenhizen/Desktop/Fiber Photo Dev/IDs</t>
+  </si>
+  <si>
+    <t>C:/Users/evannewenhizen/Desktop/Fiber Photo Dev/Figures</t>
+  </si>
+  <si>
+    <t>E:/MU Fiber Files 2/GCamP8-180911-123832</t>
+  </si>
+  <si>
+    <t>Shock Delivery</t>
+  </si>
+  <si>
+    <t>If batching info collection, direct to root folder were many tank files are stored</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -126,8 +163,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,104 +486,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D60B8BD-4B5D-4910-8DF5-574558CCD4A4}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="7" max="7" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>25</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/User Values.xlsx
+++ b/User Values.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evannewenhizen\Desktop\Fiber Photo Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evannewenhizen\Documents\GitHub\FiberPhix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF9B71E-FFC6-4A7E-962C-7D3F08FFD23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7BEDEC-1A04-44D3-A260-CAF0F341B3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-55200" yWindow="3360" windowWidth="21600" windowHeight="10800" xr2:uid="{D7731260-2FB8-45ED-B485-4AF02B50CAD8}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>all</t>
   </si>
   <si>
-    <t>E:/MU Fiber Files 2</t>
-  </si>
-  <si>
     <t>Sock</t>
   </si>
   <si>
@@ -90,19 +87,22 @@
     <t>Figure Save Location?</t>
   </si>
   <si>
-    <t>C:/Users/evannewenhizen/Desktop/Fiber Photo Dev/IDs</t>
-  </si>
-  <si>
-    <t>C:/Users/evannewenhizen/Desktop/Fiber Photo Dev/Figures</t>
-  </si>
-  <si>
-    <t>E:/MU Fiber Files 2/GCamP8-180911-123832</t>
-  </si>
-  <si>
     <t>Shock Delivery</t>
   </si>
   <si>
     <t>If batching info collection, direct to root folder were many tank files are stored</t>
+  </si>
+  <si>
+    <t>C:/FIGURE STORAGE FOLDER</t>
+  </si>
+  <si>
+    <t>C://INFORMATION STORAGE FOLDER</t>
+  </si>
+  <si>
+    <t>C://INDIVIDUAL PATH TO TANK FOLDER</t>
+  </si>
+  <si>
+    <t>C://PATH TO MULTI-TANK DIRECTORY</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,7 +540,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -555,13 +555,13 @@
         <v>1500</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="3" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -580,22 +580,22 @@
     </row>
     <row r="4" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">

--- a/User Values.xlsx
+++ b/User Values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evannewenhizen\Documents\GitHub\FiberPhix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evannewenhizen\Desktop\Fiber Photo Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7BEDEC-1A04-44D3-A260-CAF0F341B3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B935F9-D068-4EFA-B1FF-407C3A899E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-55200" yWindow="3360" windowWidth="21600" windowHeight="10800" xr2:uid="{D7731260-2FB8-45ED-B485-4AF02B50CAD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7731260-2FB8-45ED-B485-4AF02B50CAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Control Channel ID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Time to cut off beginning (seconds)</t>
   </si>
   <si>
-    <t>Path to tank file</t>
-  </si>
-  <si>
     <t>Time to cut off end (seconds)</t>
   </si>
   <si>
@@ -72,44 +69,104 @@
     <t>_405N</t>
   </si>
   <si>
-    <t>*Type 'ALL' for all events during session</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>Sock</t>
-  </si>
-  <si>
-    <t>MainInfo Save Location?</t>
-  </si>
-  <si>
-    <t>Figure Save Location?</t>
-  </si>
-  <si>
-    <t>Shock Delivery</t>
-  </si>
-  <si>
-    <t>If batching info collection, direct to root folder were many tank files are stored</t>
-  </si>
-  <si>
-    <t>C:/FIGURE STORAGE FOLDER</t>
-  </si>
-  <si>
-    <t>C://INFORMATION STORAGE FOLDER</t>
-  </si>
-  <si>
-    <t>C://INDIVIDUAL PATH TO TANK FOLDER</t>
-  </si>
-  <si>
-    <t>C://PATH TO MULTI-TANK DIRECTORY</t>
+    <t>Tank File Name</t>
+  </si>
+  <si>
+    <t>DLP14-210106-113242</t>
+  </si>
+  <si>
+    <t>IInf</t>
+  </si>
+  <si>
+    <t>Sucrose Delivery</t>
+  </si>
+  <si>
+    <t>Sliding average window size (Seconds)</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'ALL'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for all events during session or type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'PATTERN'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if there is a specific pattern within an Epoc ID you want (i.e., every third, every other).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> In H4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, type 2 for every other, 3 for every third, etc. IF you are not using a pattern, type '0'.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +183,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,9 +192,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -163,14 +239,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,29 +567,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D60B8BD-4B5D-4910-8DF5-574558CCD4A4}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.81640625" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" customWidth="1"/>
-    <col min="7" max="7" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" customWidth="1"/>
-    <col min="9" max="9" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -517,91 +599,81 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3600</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
-      <c r="E2">
-        <v>1500</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="3" spans="1:11" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
+    <row r="4" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/User Values.xlsx
+++ b/User Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evannewenhizen\Desktop\Fiber Photo Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B935F9-D068-4EFA-B1FF-407C3A899E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C64789D-B999-476B-AF6A-5C7B45AB1E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7731260-2FB8-45ED-B485-4AF02B50CAD8}"/>
+    <workbookView xWindow="13050" yWindow="1530" windowWidth="10905" windowHeight="14865" xr2:uid="{D7731260-2FB8-45ED-B485-4AF02B50CAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Control Channel ID</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Time to grab after each epoc (seconds)</t>
   </si>
   <si>
-    <t>Time to cut off beginning (seconds)</t>
-  </si>
-  <si>
-    <t>Time to cut off end (seconds)</t>
-  </si>
-  <si>
     <t>Epoc Port to grab?</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
   </si>
   <si>
     <t>Tank File Name</t>
-  </si>
-  <si>
-    <t>DLP14-210106-113242</t>
   </si>
   <si>
     <t>IInf</t>
@@ -161,12 +152,36 @@
       <t>, type 2 for every other, 3 for every third, etc. IF you are not using a pattern, type '0'.</t>
     </r>
   </si>
+  <si>
+    <t>End stream collection at (seconds)</t>
+  </si>
+  <si>
+    <t>Start stream collection at (seconds)</t>
+  </si>
+  <si>
+    <t>*This is where you can adjust the name of the epoc event so that the graph will title itself with the type of event examined.</t>
+  </si>
+  <si>
+    <t>*Typically, users cut off a small fraction of their stream data to eliminate any background signal during system startup</t>
+  </si>
+  <si>
+    <t>*Isosbestic channel (or other!) channel ID goes here</t>
+  </si>
+  <si>
+    <t>*FiberPhix uses a moving average in order to smooth the data</t>
+  </si>
+  <si>
+    <t>*Enter the name of the tank file for analysis here (tip: right click on file ---&gt; 'Rename' ---&gt; 'copy' ---&gt; select cell above ---&gt; 'paste')</t>
+  </si>
+  <si>
+    <t>*In the 'Information' spreadsheet generated for the subject of interset, you can find the available Epoc IDs by looking at the sheet names!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,15 +191,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -218,6 +224,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,7 +249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -235,24 +257,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,13 +656,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -589,85 +670,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="4">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3600</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4">
-        <v>5</v>
-      </c>
-      <c r="K2" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8">
         <v>0</v>
       </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
